--- a/trunk/_document/Checklist-end.xlsx
+++ b/trunk/_document/Checklist-end.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -75,18 +75,12 @@
     <t>Fix css</t>
   </si>
   <si>
-    <t>Fix bugs</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
     <t>Tuyên dương user</t>
   </si>
   <si>
-    <t>Deploy,document source, wiki…</t>
-  </si>
-  <si>
     <t>Giải nhất</t>
   </si>
   <si>
@@ -94,6 +88,15 @@
   </si>
   <si>
     <t>Release</t>
+  </si>
+  <si>
+    <t>Document source, wiki…</t>
+  </si>
+  <si>
+    <t>Deploy, Fix bugs</t>
+  </si>
+  <si>
+    <t>Fix bug</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +191,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -216,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -226,9 +235,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,6 +255,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -570,14 +580,16 @@
     <col min="5" max="5" width="4.33203125" customWidth="1"/>
     <col min="6" max="11" width="3.77734375" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="13" max="29" width="3.77734375" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" customWidth="1"/>
+    <col min="15" max="29" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -590,7 +602,7 @@
       <c r="F7" s="2">
         <v>14</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>15</v>
       </c>
       <c r="H7" s="2">
@@ -605,13 +617,13 @@
       <c r="K7" s="2">
         <v>19</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="18">
         <v>20</v>
       </c>
       <c r="M7" s="6">
         <v>21</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>22</v>
       </c>
       <c r="O7" s="6">
@@ -623,17 +635,17 @@
         <v>1</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -646,17 +658,17 @@
         <v>2</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -669,17 +681,17 @@
         <v>3</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -692,17 +704,17 @@
         <v>4</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -715,19 +727,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -738,19 +750,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -761,7 +773,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -772,8 +784,8 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -784,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -795,8 +807,8 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -807,19 +819,19 @@
         <v>9</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -830,20 +842,20 @@
         <v>10</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="11"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -853,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -866,8 +878,8 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
@@ -876,8 +888,8 @@
         <v>12</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="13" t="s">
-        <v>22</v>
+      <c r="C19" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -889,8 +901,8 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
@@ -899,7 +911,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -913,7 +925,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
@@ -922,7 +934,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -946,10 +958,10 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -958,29 +970,32 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:19" ht="21">
-      <c r="L23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="18" t="s">
+      <c r="L23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
     </row>
     <row r="24" spans="1:19" ht="21">
-      <c r="P24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
+      <c r="P24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/trunk/_document/Checklist-end.xlsx
+++ b/trunk/_document/Checklist-end.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -87,16 +87,19 @@
     <t>30.000.000 VND</t>
   </si>
   <si>
-    <t>Release</t>
-  </si>
-  <si>
     <t>Document source, wiki…</t>
   </si>
   <si>
     <t>Deploy, Fix bugs</t>
   </si>
   <si>
-    <t>Fix bug</t>
+    <t>Fix bug 1</t>
+  </si>
+  <si>
+    <t>Fix bug 2</t>
+  </si>
+  <si>
+    <t>Logo widget on Homepage</t>
   </si>
 </sst>
 </file>
@@ -225,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -259,6 +262,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A7:S24"/>
+  <dimension ref="A7:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -646,7 +650,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -669,7 +673,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -692,7 +696,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -715,7 +719,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -738,8 +742,8 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -761,7 +765,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="15"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -774,7 +778,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -784,7 +788,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="10"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -807,7 +811,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="11"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -830,14 +834,14 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19 16384:16384">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -853,14 +857,14 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19 16384:16384">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -876,20 +880,21 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="XFD18" s="11"/>
+    </row>
+    <row r="19" spans="1:19 16384:16384">
       <c r="A19" s="6">
         <v>12</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -899,14 +904,14 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="10"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19 16384:16384">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -922,14 +927,14 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19 16384:16384">
       <c r="A21" s="5">
         <v>14</v>
       </c>
@@ -945,20 +950,20 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="5"/>
       <c r="N21" s="2"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19 16384:16384">
       <c r="A22" s="6">
         <v>15</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>19</v>
@@ -968,18 +973,21 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="2"/>
       <c r="L22" s="11"/>
       <c r="M22" s="2"/>
       <c r="N22" s="11"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="21">
+    <row r="23" spans="1:19 16384:16384" ht="21">
+      <c r="C23" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="L23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="P23" s="17" t="s">
@@ -989,7 +997,7 @@
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" ht="21">
+    <row r="24" spans="1:19 16384:16384" ht="21">
       <c r="P24" s="17" t="s">
         <v>22</v>
       </c>

--- a/trunk/_document/Checklist-end.xlsx
+++ b/trunk/_document/Checklist-end.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -100,6 +100,48 @@
   </si>
   <si>
     <t>Logo widget on Homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong text display in notification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can not upload data </t>
+  </si>
+  <si>
+    <t>Post wallpost on friends wallpost</t>
+  </si>
+  <si>
+    <t>User must be admin to receive notification</t>
+  </si>
+  <si>
+    <t>Check default notification</t>
+  </si>
+  <si>
+    <t>Notification is not display new notification item (ajax)</t>
+  </si>
+  <si>
+    <t>Comment on Blog entry? (Hoai)</t>
+  </si>
+  <si>
+    <t>order blog can not run in Chrome</t>
+  </si>
+  <si>
+    <t>Insert testimonate to CV</t>
+  </si>
+  <si>
+    <t>Navigation menu system</t>
+  </si>
+  <si>
+    <t>Insert user commendations into CV</t>
+  </si>
+  <si>
+    <t>kHA</t>
+  </si>
+  <si>
+    <t>Cut content on  RiverDashboard</t>
+  </si>
+  <si>
+    <t>Bug Stick module submenu at profile</t>
   </si>
 </sst>
 </file>
@@ -228,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -258,11 +300,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,17 +614,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A7:XFD24"/>
+  <dimension ref="A7:XFD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.44140625" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" customWidth="1"/>
     <col min="6" max="11" width="3.77734375" customWidth="1"/>
@@ -590,10 +635,10 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:15">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -645,12 +690,12 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="20"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -668,12 +713,12 @@
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="20"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -691,12 +736,12 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="20"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -714,12 +759,12 @@
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="20"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -737,12 +782,12 @@
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -765,7 +810,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="20"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="15"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -788,7 +833,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="20"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="10"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -811,7 +856,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="21"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="11"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -829,12 +874,12 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="21"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -852,12 +897,12 @@
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -880,7 +925,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="20"/>
+      <c r="J18" s="19"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="11"/>
@@ -904,7 +949,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="20"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="10"/>
@@ -927,7 +972,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="20"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="10"/>
@@ -950,7 +995,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="20"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="5"/>
@@ -973,7 +1018,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="20"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="2"/>
       <c r="L22" s="11"/>
       <c r="M22" s="2"/>
@@ -1004,6 +1049,104 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
+    </row>
+    <row r="25" spans="1:19 16384:16384">
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19 16384:16384">
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19 16384:16384">
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19 16384:16384">
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19 16384:16384">
+      <c r="C30" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19 16384:16384">
+      <c r="C31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19 16384:16384">
+      <c r="C32" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
